--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Desktop\recsys-rgrp-movielens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28B8166-A0BD-4D6B-A1A1-64E856EDAA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C17E53E-D00B-41E5-A19A-47D6D133C53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1F4DE74-3251-4727-84BB-A7BB7FECA5BB}"/>
   </bookViews>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{859BB5C9-5B17-4868-8E2C-871C320E537D}">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{859BB5C9-5B17-4868-8E2C-871C320E537D}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{C9218DDB-3331-42EA-A8CF-42E5A4836899}">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{C9218DDB-3331-42EA-A8CF-42E5A4836899}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{4F213514-3620-4D8B-8B90-9B18A7ECCB3A}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{4F213514-3620-4D8B-8B90-9B18A7ECCB3A}">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,74 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{14607BBF-8D69-49A8-820C-C251B5088775}">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{C6A0C391-1AA1-4261-82D2-A01525FD004D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNCF
+Group (Rgrp Gender): 0.0013546
+RgrpGender (masculine): 0.6789457
+RgrpGender (feminine) : 0.7525542
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.770403  0.449393            0.346214
+1         2  0.760743  0.449091            0.341643</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{4C329613-FFD5-4BAC-ABD5-0206DF0D356D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNCF
+Group (Rgrp Agglomerative): 0.0013616
+RgrpAgglomerative (1) : 0.7534166
+RgrpAgglomerative (2) : 0.6977760
+RgrpAgglomerative (3) : 0.6392699
+RgrpAgglomerative (4) : 0.6980693
+RgrpAgglomerative (5) : 0.6780630
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.750481  0.441641            0.331444
+1         2  0.773161  0.445356            0.344332
+2         3  0.738438  0.438557            0.323848
+3         4  0.762064  0.443717            0.338141
+4         5  0.770152  0.445853            0.343375
+RMSE: 0.8331254</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{14607BBF-8D69-49A8-820C-C251B5088775}">
       <text>
         <r>
           <rPr>
@@ -156,6 +223,107 @@
           </rPr>
           <t xml:space="preserve">
 RMSE: 0.8215134</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{49796729-0E52-472B-89F4-54239C9FCBC5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNCF2
+Group (Rgrp Activity): 0.0001236
+RgrpActivity (advantaged_group)   : 0.6235035
+RgrpActivity (disadvantaged_group): 0.6457408
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.629836  0.380451            0.239622
+1         2  0.601896  0.370558            0.223038
+RMSE: 0.8022724</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{2F80C521-58CD-48E4-8275-C9C2268D13B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNCF2
+Group (Rgrp Age): 0.0006533
+RgrpAge (age_00_17) : 0.6744670
+RgrpAge (age_18_24) : 0.6518579
+RgrpAge (age_25_34) : 0.6228297
+RgrpAge (age_35_44) : 0.6099073
+RgrpAge (age_45_49) : 0.6065373
+RgrpAge (age_50_55) : 0.5963616
+RgrpAge (age_56_00) : 0.6333624
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.614719  0.370708            0.227882
+1         2  0.583492  0.367541            0.214457
+2         3  0.567529  0.359742            0.204164
+3         4  0.647799  0.391715            0.253753
+4         5  0.694246  0.409930            0.284593
+5         6  0.762874  0.435004            0.331853
+6         7  0.646145  0.402225            0.259896</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{10BE3610-AA8A-4847-9E8E-8C94365332D1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNCF2
+Group (Rgrp Gender): 0.0014236
+RgrpGender (masculine): 0.6126667
+RgrpGender (feminine) : 0.6881288
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.784884  0.458899            0.360183
+1         2  0.847787  0.479881            0.406837</t>
         </r>
       </text>
     </comment>
@@ -164,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>RecSysALS</t>
   </si>
@@ -301,6 +469,168 @@
         <family val="3"/>
       </rPr>
       <t>, learning_rate=0.01</t>
+    </r>
+  </si>
+  <si>
+    <t>k = 50</t>
+  </si>
+  <si>
+    <t>rank = 8, lambda = 10</t>
+  </si>
+  <si>
+    <r>
+      <t>n_factors=50, epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">=10, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=64</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, learning_rate=0.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n_factors=20, epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">=5, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=64</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, learning_rate=0.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n_factors=20, epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">=10, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=64</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, learning_rate=0.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n_factors=40, epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">=10, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=32</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, learning_rate=0.001</t>
     </r>
   </si>
 </sst>
@@ -311,7 +641,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,8 +694,21 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,8 +733,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -399,19 +748,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -423,8 +806,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C0B08-EC64-49F3-A18C-7F6904150A6D}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,7 +1148,7 @@
     <col min="2" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.5546875" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -800,7 +1197,7 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
+      <c r="H2" s="6"/>
       <c r="J2" t="s">
         <v>7</v>
       </c>
@@ -826,7 +1223,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -846,7 +1243,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -858,7 +1255,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -867,28 +1264,28 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J9" t="s">
@@ -898,7 +1295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -920,7 +1317,7 @@
       <c r="G10" s="1">
         <v>1.2361E-3</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="6"/>
       <c r="J10" t="s">
         <v>7</v>
       </c>
@@ -931,29 +1328,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="12">
         <v>6.4050000000000001E-4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="12">
         <v>6.3349999999999995E-4</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="13">
         <v>8.252E-4</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="14">
         <v>9.1839999999999999E-4</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="15">
         <v>8.9720000000000002E-4</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="16">
         <v>8.4679999999999998E-4</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="17">
         <v>0.74373089999999997</v>
       </c>
       <c r="L11" t="s">
@@ -962,124 +1359,216 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8.8599999999999999E-5</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>0.87577709999999998</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>1.0806E-2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>3.0749000000000002E-3</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>1.032E-4</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>1.0104999999999999E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <v>5.6756000000000003E-3</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <v>4.9899000000000002E-3</v>
       </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="12">
         <v>7.2889999999999999E-4</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C14" s="18">
         <v>1.9827999999999998E-3</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="12">
         <v>2.0049999999999999E-4</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="19">
         <v>1.2309E-3</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="20">
         <v>1.2176000000000001E-3</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G14" s="16">
         <v>5.1000000000000004E-4</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="17">
         <v>0.75205449999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1.0721000000000001E-3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5.4569999999999998E-4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3.9700000000000003E-5</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3">
-        <v>5.5239999999999998E-4</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="9"/>
-      <c r="J14" t="s">
-        <v>14</v>
+      <c r="L14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1.639E-4</v>
+        <v>1.0721000000000001E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0215000000000001E-3</v>
+        <v>5.4569999999999998E-4</v>
       </c>
       <c r="D15" s="1">
-        <v>1.3706E-3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.4247999999999999E-3</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1.7097E-3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1.2922000000000001E-3</v>
-      </c>
-      <c r="H15" s="9"/>
+        <v>3.9700000000000003E-5</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3">
+        <v>5.5239999999999998E-4</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="6"/>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="24">
+        <v>1.639E-4</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1.0215000000000001E-3</v>
+      </c>
+      <c r="D16" s="24">
+        <v>1.3706E-3</v>
+      </c>
+      <c r="E16" s="24">
+        <v>1.4247999999999999E-3</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1.7097E-3</v>
+      </c>
+      <c r="G16" s="24">
+        <v>1.2922000000000001E-3</v>
+      </c>
+      <c r="H16" s="24">
+        <v>0.83288189999999995</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="24">
+        <v>1.2459999999999999E-4</v>
+      </c>
+      <c r="C17" s="24">
+        <v>8.0860000000000003E-4</v>
+      </c>
+      <c r="D17" s="24">
+        <v>1.3546000000000001E-3</v>
+      </c>
+      <c r="E17" s="25">
+        <v>1.3615999999999999E-3</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="J17" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="J18" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B19" s="1">
         <v>3.0160000000000001E-4</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H19" s="5">
         <v>0.87503220000000004</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J19" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
         <v>2.3364000000000002E-3</v>
       </c>
-      <c r="H17" s="8">
-        <v>1.0659772999999999</v>
-      </c>
-      <c r="J17" s="12" t="s">
+      <c r="J20" s="9" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="22">
+        <v>1.236E-4</v>
+      </c>
+      <c r="C21" s="22">
+        <v>6.533E-4</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1.4235999999999999E-3</v>
+      </c>
+      <c r="E21" s="22">
+        <v>1.0344E-3</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23">
+        <v>0.8022724</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>8.6500000000000002E-5</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Desktop\recsys-rgrp-movielens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-rgrp-movielens-ieee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C17E53E-D00B-41E5-A19A-47D6D133C53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050958DB-79BF-47BA-9CD4-EA7705CE4E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1F4DE74-3251-4727-84BB-A7BB7FECA5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,6 +64,67 @@
         </r>
       </text>
     </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{1B4A5A1E-B4B4-4565-96FA-A9368A1DE95A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysALS
+Group (Rgrp Activity): 0.0006405
+RgrpActivity (advantaged_group)   : 0.5072996
+RgrpActivity (disadvantaged_group): 0.5579151
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.504378  0.328033            0.165453
+1         2  0.448544  0.301388            0.135186
+RMSE: 0.7437309</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{D848A15C-7475-4125-B7A4-7825FA578FAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysALS
+Group (Rgrp Gender): 0.0008252
+RgrpGender (masculine): 0.5414160
+RgrpGender (feminine) : 0.5988678
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.648703  0.408281            0.264854
+1         2  0.711182  0.437081            0.310844</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A14" authorId="0" shapeId="0" xr:uid="{859BB5C9-5B17-4868-8E2C-871C320E537D}">
       <text>
         <r>
@@ -87,7 +149,37 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{C9218DDB-3331-42EA-A8CF-42E5A4836899}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{F2DA076C-162A-4907-9F3F-A18430861A5F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysKNN2
+Group (Rgrp Gender): 0.0002005
+RgrpGender (masculine): 0.5598094
+RgrpGender (feminine) : 0.5881268
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.464680  0.329452            0.153090
+1         2  0.502534  0.349411            0.175591</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{C9218DDB-3331-42EA-A8CF-42E5A4836899}">
       <text>
         <r>
           <rPr>
@@ -111,7 +203,68 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{4F213514-3620-4D8B-8B90-9B18A7ECCB3A}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{2694C743-D319-4862-9BA3-708CF6E8C5F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysKNN4
+Group (Rgrp Activity): 0.0008215
+RgrpActivity (advantaged_group)   : 0.5582491
+RgrpActivity (disadvantaged_group): 0.5009256
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.322726  0.239109            0.077167
+1         2  0.318934  0.235497            0.075108
+RMSE: 0.7115746</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{57A360D8-AA9D-4305-93A5-52BB12E12F85}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysKNN4
+Group (Rgrp Gender): 0.0001279
+RgrpGender (masculine): 0.5017239
+RgrpGender (feminine) : 0.5243448
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.490950  0.341977            0.167894
+1         2  0.535116  0.364970            0.195302</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{4F213514-3620-4D8B-8B90-9B18A7ECCB3A}">
       <text>
         <r>
           <rPr>
@@ -135,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{C6A0C391-1AA1-4261-82D2-A01525FD004D}">
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{C6A0C391-1AA1-4261-82D2-A01525FD004D}">
       <text>
         <r>
           <rPr>
@@ -165,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{4C329613-FFD5-4BAC-ABD5-0206DF0D356D}">
+    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{4C329613-FFD5-4BAC-ABD5-0206DF0D356D}">
       <text>
         <r>
           <rPr>
@@ -202,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{14607BBF-8D69-49A8-820C-C251B5088775}">
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{14607BBF-8D69-49A8-820C-C251B5088775}">
       <text>
         <r>
           <rPr>
@@ -226,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{49796729-0E52-472B-89F4-54239C9FCBC5}">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{49796729-0E52-472B-89F4-54239C9FCBC5}">
       <text>
         <r>
           <rPr>
@@ -247,17 +400,17 @@
           </rPr>
           <t xml:space="preserve">
 Algorithm: RecSysNCF2
-Group (Rgrp Activity): 0.0001236
-RgrpActivity (advantaged_group)   : 0.6235035
-RgrpActivity (disadvantaged_group): 0.6457408
+Group (Rgrp Activity): 0.0001516
+RgrpActivity (advantaged_group)   : 0.6166908
+RgrpActivity (disadvantaged_group): 0.6413167
    group_id   novelty       ILD  adjusted_diversity
-0         1  0.629836  0.380451            0.239622
-1         2  0.601896  0.370558            0.223038
-RMSE: 0.8022724</t>
+0         1  0.680095  0.400784            0.272572
+1         2  0.599340  0.368471            0.220840
+RMSE: 0.7993693</t>
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{2F80C521-58CD-48E4-8275-C9C2268D13B3}">
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{2F80C521-58CD-48E4-8275-C9C2268D13B3}">
       <text>
         <r>
           <rPr>
@@ -297,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{10BE3610-AA8A-4847-9E8E-8C94365332D1}">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{10BE3610-AA8A-4847-9E8E-8C94365332D1}">
       <text>
         <r>
           <rPr>
@@ -318,12 +471,221 @@
           </rPr>
           <t xml:space="preserve">
 Algorithm: RecSysNCF2
-Group (Rgrp Gender): 0.0014236
-RgrpGender (masculine): 0.6126667
-RgrpGender (feminine) : 0.6881288
+Group (Rgrp Gender): 0.0012830
+RgrpGender (masculine): 0.6277816
+RgrpGender (feminine) : 0.6994194
    group_id   novelty       ILD  adjusted_diversity
-0         1  0.784884  0.458899            0.360183
-1         2  0.847787  0.479881            0.406837</t>
+0         1  0.802987  0.462718            0.371557
+1         2  0.876619  0.487007            0.426920</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{7BC2BF7D-6347-4153-B739-C37E94A67DA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNCF2
+Group (Rgrp Agglomerative): 0.0013075
+RgrpAgglomerative (1) : 0.7144294
+RgrpAgglomerative (2) : 0.6560699
+RgrpAgglomerative (3) : 0.6037834
+RgrpAgglomerative (4) : 0.6520860
+RgrpAgglomerative (5) : 0.6347162
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.846230  0.473600            0.400775
+1         2  0.827506  0.462812            0.382980
+2         3  0.812578  0.461817            0.375263
+3         4  0.754831  0.447649            0.337900
+4         5  0.764659  0.450012            0.344106
+RMSE: 0.8077946</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rafael Vargas</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{919C76A9-C8F9-47D8-A565-38491C874453}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RMSE: 0.7437309</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{E7B4358D-D2AA-47C1-9245-F958FC2B6D97}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNCF2
+Group (Rgrp Activity): 0.0001516
+RgrpActivity (advantaged_group)   : 0.6166908
+RgrpActivity (disadvantaged_group): 0.6413167
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.680095  0.400784            0.272572
+1         2  0.599340  0.368471            0.220840
+RMSE: 0.7993693</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{43082F2D-386A-40C1-8284-8E0A504C4420}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNCF2
+Group (Rgrp Age): 0.0006533
+RgrpAge (age_00_17) : 0.6744670
+RgrpAge (age_18_24) : 0.6518579
+RgrpAge (age_25_34) : 0.6228297
+RgrpAge (age_35_44) : 0.6099073
+RgrpAge (age_45_49) : 0.6065373
+RgrpAge (age_50_55) : 0.5963616
+RgrpAge (age_56_00) : 0.6333624
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.614719  0.370708            0.227882
+1         2  0.583492  0.367541            0.214457
+2         3  0.567529  0.359742            0.204164
+3         4  0.647799  0.391715            0.253753
+4         5  0.694246  0.409930            0.284593
+5         6  0.762874  0.435004            0.331853
+6         7  0.646145  0.402225            0.259896</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{2C7771DB-E7BC-42C3-A964-9240EF5B5DD3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNCF2
+Group (Rgrp Gender): 0.0012830
+RgrpGender (masculine): 0.6277816
+RgrpGender (feminine) : 0.6994194
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.802987  0.462718            0.371557
+1         2  0.876619  0.487007            0.426920</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{4EF87215-BDAF-4859-B96A-A493D7B873F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNCF2
+Group (Rgrp Agglomerative): 0.0013075
+RgrpAgglomerative (1) : 0.7144294
+RgrpAgglomerative (2) : 0.6560699
+RgrpAgglomerative (3) : 0.6037834
+RgrpAgglomerative (4) : 0.6520860
+RgrpAgglomerative (5) : 0.6347162
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.846230  0.473600            0.400775
+1         2  0.827506  0.462812            0.382980
+2         3  0.812578  0.461817            0.375263
+3         4  0.754831  0.447649            0.337900
+4         5  0.764659  0.450012            0.344106
+RMSE: 0.8077946</t>
         </r>
       </text>
     </comment>
@@ -332,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>RecSysALS</t>
   </si>
@@ -374,9 +736,6 @@
   </si>
   <si>
     <t>RecSysKNN3</t>
-  </si>
-  <si>
-    <t>RS = RecSysRBM.RecSysRBM(ratings=X, n_components=5, learning_rate=0.01, n_iter=200)</t>
   </si>
   <si>
     <t>RecSysKNN2</t>
@@ -633,6 +992,30 @@
       <t>, learning_rate=0.001</t>
     </r>
   </si>
+  <si>
+    <t>k = 40</t>
+  </si>
+  <si>
+    <t>k = 100</t>
+  </si>
+  <si>
+    <t>RecSysKNN4</t>
+  </si>
+  <si>
+    <t>k = 30</t>
+  </si>
+  <si>
+    <t>k = 20</t>
+  </si>
+  <si>
+    <t>k = 10</t>
+  </si>
+  <si>
+    <t>Aglomerative</t>
+  </si>
+  <si>
+    <t>k = 25</t>
+  </si>
 </sst>
 </file>
 
@@ -708,7 +1091,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,8 +1122,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -785,11 +1174,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -809,7 +1213,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -822,6 +1225,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,6 +1261,2143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RecSysALS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Activity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Age</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gender</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aglomerative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.4050000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3349999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.252E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1839999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2CB-4283-A7DF-AF0AD6749487}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RecSysKNN4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Activity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Age</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gender</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aglomerative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.2149999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.56E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2789999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1659000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2CB-4283-A7DF-AF0AD6749487}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RecSysNCF2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Activity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Age</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gender</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aglomerative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.516E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.533E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000000">
+                  <c:v>1.2830000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3075000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F2CB-4283-A7DF-AF0AD6749487}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="629801023"/>
+        <c:axId val="629799775"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="629801023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629799775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="629799775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629801023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Activity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>RecSysALS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RecSysKNN4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RecSysNCF2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.4050000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2149999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.516E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D76E-4349-94EE-1C9E2603E380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Age</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>RecSysALS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RecSysKNN4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RecSysNCF2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3349999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.56E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>6.533E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D76E-4349-94EE-1C9E2603E380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>RecSysALS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RecSysKNN4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RecSysNCF2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.252E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2789999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2830000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D76E-4349-94EE-1C9E2603E380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aglomerative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>RecSysALS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RecSysKNN4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RecSysNCF2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.1839999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1659000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.3075000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D76E-4349-94EE-1C9E2603E380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="64007423"/>
+        <c:axId val="64011167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="64007423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64011167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64011167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64007423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8863F4-58AC-4737-B35E-AD3CD01C8667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>414336</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>169068</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A0B7D0D-30B9-4FA7-B0D6-CF3518FB6DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1136,10 +3697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C0B08-EC64-49F3-A18C-7F6904150A6D}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,7 +3847,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
@@ -1325,36 +3886,36 @@
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="18">
         <v>6.4050000000000001E-4</v>
       </c>
       <c r="C11" s="12">
         <v>6.3349999999999995E-4</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="38">
         <v>8.252E-4</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>9.1839999999999999E-4</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>8.9720000000000002E-4</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>8.4679999999999998E-4</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>0.74373089999999997</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1373,7 +3934,7 @@
         <v>0.87577709999999998</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1402,173 +3963,316 @@
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="12">
+        <v>14</v>
+      </c>
+      <c r="B14" s="42">
         <v>7.2889999999999999E-4</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>1.9827999999999998E-3</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="15">
         <v>2.0049999999999999E-4</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>1.2309E-3</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>1.2176000000000001E-3</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>5.1000000000000004E-4</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <v>0.75205449999999996</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1.0721000000000001E-3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5.4569999999999998E-4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3.9700000000000003E-5</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3">
-        <v>5.5239999999999998E-4</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="6"/>
-      <c r="J15" t="s">
-        <v>14</v>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25">
+        <v>7.8299999999999995E-4</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1.7982E-3</v>
+      </c>
+      <c r="D15" s="25">
+        <v>1.539E-4</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1.1921E-3</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25">
+        <v>0.79270200000000002</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25">
+        <v>6.7319999999999999E-4</v>
+      </c>
+      <c r="C16" s="25">
+        <v>2.6305E-3</v>
+      </c>
+      <c r="D16" s="25">
+        <v>3.0200000000000002E-4</v>
+      </c>
+      <c r="E16" s="25">
+        <v>1.3839E-3</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.0721000000000001E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.4569999999999998E-4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.9700000000000003E-5</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3">
+        <v>5.5239999999999998E-4</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
+        <v>1.8698E-3</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>1.2871E-3</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="6"/>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="43">
+        <v>8.2149999999999996E-4</v>
+      </c>
+      <c r="C19" s="27">
+        <v>1.56E-3</v>
+      </c>
+      <c r="D19" s="39">
+        <v>1.2789999999999999E-4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.1659000000000001E-3</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="6">
+        <v>0.71157459999999995</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>8.9050000000000002E-4</v>
+      </c>
+      <c r="C20" s="37">
+        <v>1.4714999999999999E-3</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="6">
+        <v>0.69375019999999998</v>
+      </c>
+      <c r="L20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
+        <v>1.3573999999999999E-3</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>1.0827E-3</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="6">
+        <v>0.66980530000000005</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="6"/>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
+        <v>2.3143E-3</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>1.4656000000000001E-3</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B24" s="23">
         <v>1.639E-4</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C24" s="23">
         <v>1.0215000000000001E-3</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D24" s="23">
         <v>1.3706E-3</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E24" s="23">
         <v>1.4247999999999999E-3</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F24" s="24">
         <v>1.7097E-3</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G24" s="23">
         <v>1.2922000000000001E-3</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H24" s="23">
         <v>0.83288189999999995</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J24" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="23">
+        <v>1.2459999999999999E-4</v>
+      </c>
+      <c r="C25" s="23">
+        <v>8.0860000000000003E-4</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1.3546000000000001E-3</v>
+      </c>
+      <c r="E25" s="24">
+        <v>1.3615999999999999E-3</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="J25" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="J26" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="24">
-        <v>1.2459999999999999E-4</v>
-      </c>
-      <c r="C17" s="24">
-        <v>8.0860000000000003E-4</v>
-      </c>
-      <c r="D17" s="24">
-        <v>1.3546000000000001E-3</v>
-      </c>
-      <c r="E17" s="25">
-        <v>1.3615999999999999E-3</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="J17" s="9" t="s">
-        <v>25</v>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.0160000000000001E-4</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.87503220000000004</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="J18" s="9" t="s">
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2.3364000000000002E-3</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="40">
+        <v>1.516E-4</v>
+      </c>
+      <c r="C29" s="21">
+        <v>6.533E-4</v>
+      </c>
+      <c r="D29" s="41">
+        <v>1.2830000000000001E-3</v>
+      </c>
+      <c r="E29" s="26">
+        <v>1.3075000000000001E-3</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22">
+        <v>0.79936929999999995</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>8.6500000000000002E-5</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3.0160000000000001E-4</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.87503220000000004</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2.3364000000000002E-3</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="22">
-        <v>1.236E-4</v>
-      </c>
-      <c r="C21" s="22">
-        <v>6.533E-4</v>
-      </c>
-      <c r="D21" s="18">
-        <v>1.4235999999999999E-3</v>
-      </c>
-      <c r="E21" s="22">
-        <v>1.0344E-3</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23">
-        <v>0.8022724</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>8.6500000000000002E-5</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1576,4 +4280,93 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C8322C-2557-4BA1-8535-F10E435504F8}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31">
+        <v>6.4050000000000001E-4</v>
+      </c>
+      <c r="C2" s="31">
+        <v>6.3349999999999995E-4</v>
+      </c>
+      <c r="D2" s="32">
+        <v>8.252E-4</v>
+      </c>
+      <c r="E2" s="33">
+        <v>9.1839999999999999E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="31">
+        <v>8.2149999999999996E-4</v>
+      </c>
+      <c r="C3" s="34">
+        <v>1.56E-3</v>
+      </c>
+      <c r="D3" s="31">
+        <v>1.2789999999999999E-4</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1.1659000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1.516E-4</v>
+      </c>
+      <c r="C4" s="28">
+        <v>6.533E-4</v>
+      </c>
+      <c r="D4" s="35">
+        <v>1.2830000000000001E-3</v>
+      </c>
+      <c r="E4" s="36">
+        <v>1.3075000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-rgrp-movielens-ieee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050958DB-79BF-47BA-9CD4-EA7705CE4E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6979570E-51FB-43AC-A689-9123C30DC6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1F4DE74-3251-4727-84BB-A7BB7FECA5BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A1F4DE74-3251-4727-84BB-A7BB7FECA5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{859BB5C9-5B17-4868-8E2C-871C320E537D}">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{859BB5C9-5B17-4868-8E2C-871C320E537D}">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{F2DA076C-162A-4907-9F3F-A18430861A5F}">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{F2DA076C-162A-4907-9F3F-A18430861A5F}">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{C9218DDB-3331-42EA-A8CF-42E5A4836899}">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{C9218DDB-3331-42EA-A8CF-42E5A4836899}">
       <text>
         <r>
           <rPr>
@@ -203,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{2694C743-D319-4862-9BA3-708CF6E8C5F0}">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{2694C743-D319-4862-9BA3-708CF6E8C5F0}">
       <text>
         <r>
           <rPr>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{57A360D8-AA9D-4305-93A5-52BB12E12F85}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{57A360D8-AA9D-4305-93A5-52BB12E12F85}">
       <text>
         <r>
           <rPr>
@@ -264,31 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{4F213514-3620-4D8B-8B90-9B18A7ECCB3A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rafael Vargas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-RMSE: 0.8318302</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{C6A0C391-1AA1-4261-82D2-A01525FD004D}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{C6A0C391-1AA1-4261-82D2-A01525FD004D}">
       <text>
         <r>
           <rPr>
@@ -318,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{4C329613-FFD5-4BAC-ABD5-0206DF0D356D}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{4C329613-FFD5-4BAC-ABD5-0206DF0D356D}">
       <text>
         <r>
           <rPr>
@@ -355,7 +331,145 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{14607BBF-8D69-49A8-820C-C251B5088775}">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{5ED73C1E-3EF2-4423-8861-C62EAAAB618C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNCF
+Group (Rgrp Activity): 0.0001983
+RgrpActivity (advantaged_group)   : 0.6858409
+RgrpActivity (disadvantaged_group): 0.7140054
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.665749  0.382118            0.254395
+1         2  0.597981  0.362389            0.216702
+RMSE: 0.8434133</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{0CF7A287-74A7-4047-94C7-3EC29AF41B7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNCF
+Group (Rgrp Age): 0.0009184
+RgrpAge (age_00_17) : 0.7503187
+RgrpAge (age_18_24) : 0.7484501
+RgrpAge (age_25_34) : 0.6980305
+RgrpAge (age_35_44) : 0.6789333
+RgrpAge (age_45_49) : 0.6721374
+RgrpAge (age_50_55) : 0.6790036
+RgrpAge (age_56_00) : 0.7068404
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.649799  0.388948            0.252738
+1         2  0.624471  0.382073            0.238594
+2         3  0.590425  0.366133            0.216174
+3         4  0.541760  0.349264            0.189218
+4         5  0.548052  0.345146            0.189158
+5         6  0.551219  0.357089            0.196835
+6         7  0.506364  0.331451            0.167835</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{4724EA4E-71B9-46D2-A087-AC0B214F9ADA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNCF
+Group (Rgrp Gender): 0.0013087
+RgrpGender (masculine): 0.6834183
+RgrpGender (feminine) : 0.7557694
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.798370  0.455505            0.363662
+1         2  0.784413  0.452497            0.354946</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{5DC59B72-D2B4-4414-B119-6495027BD582}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNCF
+Group (Rgrp Agglomerative): 0.0014805
+RgrpAgglomerative (1): 0.7597630
+RgrpAgglomerative (2): 0.6992425
+RgrpAgglomerative (3): 0.6409658
+RgrpAgglomerative (4): 0.7004714
+RgrpAgglomerative (5): 0.6793387
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.697778  0.432640            0.301887
+1         2  0.722183  0.438289            0.316525
+2         3  0.690222  0.429463            0.296426
+3         4  0.711723  0.434551            0.309280
+4         5  0.719572  0.436447            0.314055
+RMSE: 0.8347521</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{14607BBF-8D69-49A8-820C-C251B5088775}">
       <text>
         <r>
           <rPr>
@@ -379,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{49796729-0E52-472B-89F4-54239C9FCBC5}">
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{49796729-0E52-472B-89F4-54239C9FCBC5}">
       <text>
         <r>
           <rPr>
@@ -410,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{2F80C521-58CD-48E4-8275-C9C2268D13B3}">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{2F80C521-58CD-48E4-8275-C9C2268D13B3}">
       <text>
         <r>
           <rPr>
@@ -450,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{10BE3610-AA8A-4847-9E8E-8C94365332D1}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{10BE3610-AA8A-4847-9E8E-8C94365332D1}">
       <text>
         <r>
           <rPr>
@@ -471,16 +585,16 @@
           </rPr>
           <t xml:space="preserve">
 Algorithm: RecSysNCF2
-Group (Rgrp Gender): 0.0012830
-RgrpGender (masculine): 0.6277816
-RgrpGender (feminine) : 0.6994194
+Group (Rgrp Gender): 0.0011746
+RgrpGender (masculine): 0.6233705
+RgrpGender (feminine) : 0.6919155
    group_id   novelty       ILD  adjusted_diversity
-0         1  0.802987  0.462718            0.371557
-1         2  0.876619  0.487007            0.426920</t>
+0         1  0.800397  0.464297            0.371623
+1         2  0.848511  0.480446            0.407665</t>
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{7BC2BF7D-6347-4153-B739-C37E94A67DA7}">
+    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{7BC2BF7D-6347-4153-B739-C37E94A67DA7}">
       <text>
         <r>
           <rPr>
@@ -517,6 +631,648 @@
         </r>
       </text>
     </comment>
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{A430CBA8-9AAA-4375-A57E-0E80A0116376}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysNMF
+Group (Rgrp Activity): 0.0028404
+RgrpActivity (advantaged_group)   : 0.4155513
+RgrpActivity (disadvantaged_group): 0.5221430
+   group_id  novelty       ILD  adjusted_diversity
+0         1  0.47392  0.333901            0.158243
+1         2  0.47062  0.321445            0.151279
+RMSE: 0.7155962</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{2D214B9C-1FF8-43D0-8725-30B962121499}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased3
+Group (Rgrp Activity): 0.0002096
+RgrpActivity (advantaged_group)   : 0.9217961
+RgrpActivity (disadvantaged_group): 0.8928434
+   group_id   novelty       ILD  adjusted_diversity
+0         1  1.384167  0.642253            0.888986
+1         2  1.344480  0.640082            0.860578
+RMSE: 0.9463494</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{576A67CD-CF3A-44C7-83FA-F698B3BF2D98}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased3
+Group (Rgrp Age): 0.0043523
+RgrpAge (age_00_17) : 1.0170339
+RgrpAge (age_18_24) : 0.9534886
+RgrpAge (age_25_34) : 0.9087256
+RgrpAge (age_35_44) : 0.8439206
+RgrpAge (age_45_49) : 0.8331676
+RgrpAge (age_50_55) : 0.8242239
+RgrpAge (age_56_00) : 0.8716205
+   group_id   novelty       ILD  adjusted_diversity
+0         1  1.321131  0.635711            0.839858
+1         2  1.364894  0.645378            0.880873
+2         3  1.358432  0.644602            0.875648
+3         4  1.315706  0.630636            0.829733
+4         5  1.308228  0.630427            0.824742
+5         6  1.336253  0.631797            0.844242
+6         7  1.383335  0.645886            0.893478</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{4B3B8032-D2FE-4892-B577-B210E424846D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased3
+Group (Rgrp Gender): 0.0004621
+RgrpGender (masculine): 0.8868070
+RgrpGender (feminine) : 0.9298001
+   group_id   novelty       ILD  adjusted_diversity
+0         1  1.126293  0.599144            0.674813
+1         2  1.120959  0.599154            0.671628</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{01C30651-BEC9-4D0C-B293-99EE9ADD4D11}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased3
+Group (Rgrp Activity): 0.0006686
+RgrpActivity (advantaged_group)   : 0.9920018
+RgrpActivity (disadvantaged_group): 0.9402860
+   group_id   novelty       ILD  adjusted_diversity
+0         1  1.380131  0.664472            0.917059
+1         2  1.331859  0.655698            0.873298
+RMSE: 0.9721982</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{20BD1A90-E0BA-4967-983D-AFDA3D62E393}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased3
+Group (Rgrp Gender): 0.0010989
+RgrpGender (masculine): 0.9316449
+RgrpGender (feminine) : 0.9979436
+   group_id   novelty       ILD  adjusted_diversity
+0         1  1.128850  0.602884            0.680565
+1         2  1.123461  0.603004            0.677452</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{A2A1FFAB-15BC-478E-AC65-ABF1386F1BAA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased4
+Group (Rgrp Activity): 0.0013615
+RgrpActivity (advantaged_group)   : 0.7255414
+RgrpActivity (disadvantaged_group): 0.6517431
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.991757  0.543778            0.539296
+1         2  1.024151  0.559226            0.572733
+RMSE: 0.8116105</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{30E8AA8F-1FAF-4C27-ADAD-F12EF2924B6C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased4
+Group (Rgrp Age): 0.0033900
+RgrpAge (age_00_17) : 0.7653790
+RgrpAge (age_18_24) : 0.7001298
+RgrpAge (age_25_34) : 0.6813860
+RgrpAge (age_35_44) : 0.6145290
+RgrpAge (age_45_49) : 0.6073343
+RgrpAge (age_50_55) : 0.5940837
+RgrpAge (age_56_00) : 0.6204561
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.931369  0.529488            0.493149
+1         2  0.957124  0.541491            0.518275
+2         3  0.955812  0.535959            0.512277
+3         4  0.959926  0.535909            0.514433
+4         5  0.972910  0.539983            0.525355
+5         6  0.974301  0.533936            0.520215
+6         7  1.022639  0.551342            0.563824</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{620FD321-8889-4600-8B6A-E06EF14321AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased4
+Group (Rgrp Gender): 0.0001703
+RgrpGender (masculine): 0.6591367
+RgrpGender (feminine) : 0.6852349
+   group_id   novelty       ILD  adjusted_diversity
+0         1  1.072768  0.589987            0.632920
+1         2  1.086644  0.595386            0.646973</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{B7D90B35-8826-4070-BE77-23FF48857537}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased4
+Group (Rgrp Agglomerative): 0.0017927
+RgrpAgglomerative (1) : 0.6765147
+RgrpAgglomerative (2) : 0.6948512
+RgrpAgglomerative (3) : 0.5756682
+RgrpAgglomerative (4) : 0.6666408
+RgrpAgglomerative (5) : 0.6782586
+   group_id   novelty       ILD  adjusted_diversity
+0         1  1.075065  0.592333            0.636797
+1         2  1.061480  0.587606            0.623733
+2         3  1.061339  0.584099            0.619927
+3         4  1.056677  0.584818            0.617964
+4         5  1.043042  0.583342            0.608451
+RMSE: 0.8112416</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{36BDAA6A-F91B-4B44-83C7-2A54BBCE3E4E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased4
+Group (Rgrp Activity): 0.0012982
+RgrpActivity (advantaged_group)   : 0.6943626
+RgrpActivity (disadvantaged_group): 0.6223020
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.613041  0.399106            0.244668
+1         2  0.712265  0.446424            0.317972
+RMSE: 0.7931623</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{4C834CEC-F816-4788-9D12-B431C9E4446E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased4
+Group (Rgrp Age): 0.0027828
+RgrpAge (age_00_17) : 0.7163901
+RgrpAge (age_18_24) : 0.6597488
+RgrpAge (age_25_34) : 0.6467586
+RgrpAge (age_35_44) : 0.5814886
+RgrpAge (age_45_49) : 0.5743655
+RgrpAge (age_50_55) : 0.5647404
+RgrpAge (age_56_00) : 0.5840058
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.623720  0.408221            0.254616
+1         2  0.698266  0.443331            0.309563
+2         3  0.717657  0.451618            0.324107
+3         4  0.729286  0.451837            0.329519
+4         5  0.741567  0.455061            0.337459
+5         6  0.748488  0.447754            0.335139
+6         7  0.671644  0.419574            0.281805</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{A1A1AC2F-760C-4517-A2BB-379EDC92143B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased4
+Group (Rgrp Gender): 0.0001468
+RgrpGender (masculine): 0.6231274
+RgrpGender (feminine) : 0.6473567
+   group_id   novelty       ILD  adjusted_diversity
+0         1  1.001132  0.566935            0.567577
+1         2  1.031964  0.578368            0.596855</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{B9FD6023-DDCF-4BA1-B9B3-818F92386E65}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased4
+Group (Rgrp Agglomerative): 0.0018049
+RgrpAgglomerative (1) : 0.6488483
+RgrpAgglomerative (2) : 0.6694935
+RgrpAgglomerative (3) : 0.5482726
+RgrpAgglomerative (4) : 0.6308784
+RgrpAgglomerative (5) : 0.6507333
+   group_id   novelty       ILD  adjusted_diversity
+0         1  1.009770  0.570272            0.575844
+1         2  0.962187  0.554123            0.533171
+2         3  0.988371  0.559116            0.552614
+3         4  0.990811  0.562158            0.556993
+4         5  0.970523  0.559990            0.543483</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{D89D0690-3BC7-42E1-93CD-C0457C637FB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased4
+Group (Rgrp Activity): 0.0012386
+RgrpActivity (advantaged_group)   : 0.6928820
+RgrpActivity (disadvantaged_group): 0.6224959
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.552785  0.369687            0.204358
+1         2  0.663644  0.425634            0.282470
+RMSE: 0.7931848</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{13DEA31C-9FB1-4B25-8A20-2F2C5538C60D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased4
+Group (Rgrp Age): 0.0025688
+RgrpAge (age_00_17) : 0.7098522
+RgrpAge (age_18_24) : 0.6600364
+RgrpAge (age_25_34) : 0.6438600
+RgrpAge (age_35_44) : 0.5799701
+RgrpAge (age_45_49) : 0.5750510
+RgrpAge (age_50_55) : 0.5662722
+RgrpAge (age_56_00) : 0.5840993
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.629968  0.412718            0.259999
+1         2  0.676647  0.435493            0.294675
+2         3  0.688422  0.439207            0.302360
+3         4  0.688586  0.433592            0.298566
+4         5  0.700211  0.438779            0.307238
+5         6  0.749712  0.446313            0.334607
+6         7  0.651238  0.407036            0.265077</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{341FB0D1-1A4B-4B41-A7A1-A00C8B753D91}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased4
+Group (Rgrp Gender): 0.0002534
+RgrpGender (masculine): 0.6236506
+RgrpGender (feminine) : 0.6554883
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.990780  0.561719            0.556540
+1         2  1.011141  0.570900            0.577262</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{41082D98-E6C1-4D5A-BB9D-F0E8BA759C8C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased4
+Group (Rgrp Agglomerative): 0.0019898
+RgrpAgglomerative (1): 0.6515506
+RgrpAgglomerative (2): 0.6689123
+RgrpAgglomerative (3): 0.5439165
+RgrpAgglomerative (4): 0.6351156
+RgrpAgglomerative (5): 0.6531393
+   group_id   novelty       ILD  adjusted_diversity
+0         1  1.017770  0.573169            0.583355
+1         2  0.971706  0.556505            0.540760
+2         3  1.000976  0.563013            0.563563
+3         4  1.008728  0.567777            0.572734
+4         5  0.982854  0.562873            0.553222
+RMSE: 0.7937235
+Grupo 1: 209 elementos
+Grupo 2: 68 elementos
+Grupo 3: 209 elementos
+Grupo 4: 336 elementos
+Grupo 5: 178 elementos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0" shapeId="0" xr:uid="{9E2D0A24-9071-4FD4-834F-8E81CCEFA794}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Algorithm: RecSysContentBased4
+Group (Rgrp Activity): 0.0013733
+RgrpActivity (advantaged_group)   : 0.6978779
+RgrpActivity (disadvantaged_group): 0.6237625
+   group_id   novelty       ILD  adjusted_diversity
+0         1  0.631671  0.417184            0.263524
+1         2  0.719715  0.460371            0.331336
+RMSE: 0.7942046</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -551,150 +1307,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{E7B4358D-D2AA-47C1-9245-F958FC2B6D97}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rafael Vargas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Algorithm: RecSysNCF2
-Group (Rgrp Activity): 0.0001516
-RgrpActivity (advantaged_group)   : 0.6166908
-RgrpActivity (disadvantaged_group): 0.6413167
-   group_id   novelty       ILD  adjusted_diversity
-0         1  0.680095  0.400784            0.272572
-1         2  0.599340  0.368471            0.220840
-RMSE: 0.7993693</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{43082F2D-386A-40C1-8284-8E0A504C4420}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rafael Vargas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Algorithm: RecSysNCF2
-Group (Rgrp Age): 0.0006533
-RgrpAge (age_00_17) : 0.6744670
-RgrpAge (age_18_24) : 0.6518579
-RgrpAge (age_25_34) : 0.6228297
-RgrpAge (age_35_44) : 0.6099073
-RgrpAge (age_45_49) : 0.6065373
-RgrpAge (age_50_55) : 0.5963616
-RgrpAge (age_56_00) : 0.6333624
-   group_id   novelty       ILD  adjusted_diversity
-0         1  0.614719  0.370708            0.227882
-1         2  0.583492  0.367541            0.214457
-2         3  0.567529  0.359742            0.204164
-3         4  0.647799  0.391715            0.253753
-4         5  0.694246  0.409930            0.284593
-5         6  0.762874  0.435004            0.331853
-6         7  0.646145  0.402225            0.259896</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{2C7771DB-E7BC-42C3-A964-9240EF5B5DD3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rafael Vargas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Algorithm: RecSysNCF2
-Group (Rgrp Gender): 0.0012830
-RgrpGender (masculine): 0.6277816
-RgrpGender (feminine) : 0.6994194
-   group_id   novelty       ILD  adjusted_diversity
-0         1  0.802987  0.462718            0.371557
-1         2  0.876619  0.487007            0.426920</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{4EF87215-BDAF-4859-B96A-A493D7B873F3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rafael Vargas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Algorithm: RecSysNCF2
-Group (Rgrp Agglomerative): 0.0013075
-RgrpAgglomerative (1) : 0.7144294
-RgrpAgglomerative (2) : 0.6560699
-RgrpAgglomerative (3) : 0.6037834
-RgrpAgglomerative (4) : 0.6520860
-RgrpAgglomerative (5) : 0.6347162
-   group_id   novelty       ILD  adjusted_diversity
-0         1  0.846230  0.473600            0.400775
-1         2  0.827506  0.462812            0.382980
-2         3  0.812578  0.461817            0.375263
-3         4  0.754831  0.447649            0.337900
-4         5  0.764659  0.450012            0.344106
-RMSE: 0.8077946</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>RecSysALS</t>
   </si>
@@ -916,45 +1534,6 @@
   </si>
   <si>
     <r>
-      <t>n_factors=20, epochs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">=10, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>batch_size</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=64</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, learning_rate=0.001</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>n_factors=40, epochs</t>
     </r>
     <r>
@@ -1015,6 +1594,51 @@
   </si>
   <si>
     <t>k = 25</t>
+  </si>
+  <si>
+    <t>NMF</t>
+  </si>
+  <si>
+    <t>n_components = 50</t>
+  </si>
+  <si>
+    <t>n_components = 25</t>
+  </si>
+  <si>
+    <t>k = 5</t>
+  </si>
+  <si>
+    <t>RecSysContentBased3</t>
+  </si>
+  <si>
+    <t>k=100, regularization=1e-5</t>
+  </si>
+  <si>
+    <t>k=80, regularization=1e-5</t>
+  </si>
+  <si>
+    <t>k=80, regularization=0</t>
+  </si>
+  <si>
+    <t>RecSysContentBased4</t>
+  </si>
+  <si>
+    <t>k=5, regularization=0.01, alpha=0.1</t>
+  </si>
+  <si>
+    <t>RecSysCB4</t>
+  </si>
+  <si>
+    <t>k=3, regularization=0.05, alpha=10</t>
+  </si>
+  <si>
+    <t>k=5, regularization=0.01, alpha=1e-5</t>
+  </si>
+  <si>
+    <t>k=5, regularization=0.01, alpha=1e-6</t>
+  </si>
+  <si>
+    <t>k=5, regularization=0.1, alpha=1e-6</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1715,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1113,12 +1737,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,7 +1811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1212,40 +1830,39 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1394,7 +2011,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RecSysKNN4</c:v>
+                  <c:v>RecSysNCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1433,19 +2050,19 @@
             <c:numRef>
               <c:f>Planilha2!$B$3:$E$3</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.2149999999999996E-4</c:v>
+                  <c:v>1.983E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.56E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2789999999999999E-4</c:v>
+                  <c:v>9.1839999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000000">
+                  <c:v>1.3087000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1659000000000001E-3</c:v>
+                  <c:v>1.4805E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,7 +2074,7 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -1465,8 +2082,56 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RecSysNCF2</c:v>
-                </c:pt>
+                  <c:v>RecSysCB4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.2478000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5688E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4340000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9878999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CE7-4EC5-A49D-F30426940C77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1502,22 +2167,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha2!$B$4:$E$4</c:f>
+              <c:f>Planilha2!$B$5:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.516E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.533E-4</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.0000000">
-                  <c:v>1.2830000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3075000000000001E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1807,35 +2460,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha2!$A$2:$A$4</c:f>
+              <c:f>Planilha2!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>RecSysALS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>RecSysKNN4</c:v>
+                  <c:v>RecSysNCF</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RecSysNCF2</c:v>
+                  <c:v>RecSysCB4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha2!$B$2:$B$4</c:f>
+              <c:f>Planilha2!$B$2:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0000000">
                   <c:v>6.4050000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2149999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>1.516E-4</c:v>
+                  <c:v>1.983E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000000">
+                  <c:v>1.2478000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1872,35 +2525,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha2!$A$2:$A$4</c:f>
+              <c:f>Planilha2!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>RecSysALS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>RecSysKNN4</c:v>
+                  <c:v>RecSysNCF</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RecSysNCF2</c:v>
+                  <c:v>RecSysCB4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha2!$C$2:$C$4</c:f>
+              <c:f>Planilha2!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0000000">
                   <c:v>6.3349999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.56E-3</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>6.533E-4</c:v>
+                  <c:v>9.1839999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000000">
+                  <c:v>2.5688E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,35 +2590,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha2!$A$2:$A$4</c:f>
+              <c:f>Planilha2!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>RecSysALS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>RecSysKNN4</c:v>
+                  <c:v>RecSysNCF</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RecSysNCF2</c:v>
+                  <c:v>RecSysCB4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha2!$D$2:$D$4</c:f>
+              <c:f>Planilha2!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>8.252E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2789999999999999E-4</c:v>
+                  <c:v>1.3087000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2830000000000001E-3</c:v>
+                  <c:v>2.4340000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2002,35 +2655,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha2!$A$2:$A$4</c:f>
+              <c:f>Planilha2!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>RecSysALS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>RecSysKNN4</c:v>
+                  <c:v>RecSysNCF</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RecSysNCF2</c:v>
+                  <c:v>RecSysCB4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha2!$E$2:$E$4</c:f>
+              <c:f>Planilha2!$E$2:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0000000">
                   <c:v>9.1839999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1659000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>1.3075000000000001E-3</c:v>
+                  <c:v>1.4805E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000000">
+                  <c:v>1.9878999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2224,7 +2877,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr u="none"/>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
@@ -3329,13 +3982,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>7143</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3365,13 +4018,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>414336</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>90486</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>169068</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3697,15 +4350,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C0B08-EC64-49F3-A18C-7F6904150A6D}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.109375" customWidth="1"/>
@@ -3893,25 +4546,25 @@
       <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="16">
         <v>6.4050000000000001E-4</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="16">
         <v>6.3349999999999995E-4</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="23">
         <v>8.252E-4</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>9.1839999999999999E-4</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="16">
         <v>8.9720000000000002E-4</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="16">
         <v>8.4679999999999998E-4</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="33">
         <v>0.74373089999999997</v>
       </c>
       <c r="L11" t="s">
@@ -3937,7 +4590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -3960,319 +4613,517 @@
         <v>4.9899000000000002E-3</v>
       </c>
       <c r="H13" s="6"/>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B15" s="25">
         <v>7.2889999999999999E-4</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C15" s="15">
         <v>1.9827999999999998E-3</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D15" s="13">
         <v>2.0049999999999999E-4</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E15" s="16">
         <v>1.2309E-3</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F15" s="17">
         <v>1.2176000000000001E-3</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G15" s="13">
         <v>5.1000000000000004E-4</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H15" s="14">
         <v>0.75205449999999996</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L15" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25">
-        <v>7.8299999999999995E-4</v>
-      </c>
-      <c r="C15" s="25">
-        <v>1.7982E-3</v>
-      </c>
-      <c r="D15" s="25">
-        <v>1.539E-4</v>
-      </c>
-      <c r="E15" s="25">
-        <v>1.1921E-3</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25">
-        <v>0.79270200000000002</v>
-      </c>
-      <c r="L15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25">
-        <v>6.7319999999999999E-4</v>
-      </c>
-      <c r="C16" s="25">
-        <v>2.6305E-3</v>
-      </c>
-      <c r="D16" s="25">
-        <v>3.0200000000000002E-4</v>
-      </c>
-      <c r="E16" s="25">
-        <v>1.3839E-3</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18">
+        <v>7.8299999999999995E-4</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1.7982E-3</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1.539E-4</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1.1921E-3</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18">
+        <v>0.79270200000000002</v>
+      </c>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.0721000000000001E-3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5.4569999999999998E-4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3.9700000000000003E-5</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3">
-        <v>5.5239999999999998E-4</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="6"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18">
+        <v>6.7319999999999999E-4</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2.6305E-3</v>
+      </c>
+      <c r="D17" s="18">
+        <v>3.0200000000000002E-4</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1.3839E-3</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.0721000000000001E-3</v>
+      </c>
       <c r="C18" s="1">
-        <v>1.8698E-3</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1">
-        <v>1.2871E-3</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>5.4569999999999998E-4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.9700000000000003E-5</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3">
+        <v>5.5239999999999998E-4</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="6"/>
-      <c r="L18" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="43">
-        <v>8.2149999999999996E-4</v>
-      </c>
-      <c r="C19" s="27">
-        <v>1.56E-3</v>
-      </c>
-      <c r="D19" s="39">
-        <v>1.2789999999999999E-4</v>
-      </c>
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
+        <v>1.8698E-3</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>1.1659000000000001E-3</v>
+        <v>1.2871E-3</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="6">
-        <v>0.71157459999999995</v>
-      </c>
+      <c r="H19" s="6"/>
       <c r="L19" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>8.9050000000000002E-4</v>
-      </c>
-      <c r="C20" s="37">
-        <v>1.4714999999999999E-3</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="26">
+        <v>8.2149999999999996E-4</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1.56E-3</v>
+      </c>
+      <c r="D20" s="24">
+        <v>1.2789999999999999E-4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.1659000000000001E-3</v>
+      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="1"/>
       <c r="H20" s="6">
-        <v>0.69375019999999998</v>
+        <v>0.71157459999999995</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1">
-        <v>1.3573999999999999E-3</v>
+      <c r="B21" s="1">
+        <v>8.9050000000000002E-4</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1.4714999999999999E-3</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1">
-        <v>1.0827E-3</v>
-      </c>
-      <c r="F21" s="3"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="6">
-        <v>0.66980530000000005</v>
+        <v>0.69375019999999998</v>
       </c>
       <c r="L21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>1.3573999999999999E-3</v>
+      </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>1.0827E-3</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6">
+        <v>0.66980530000000005</v>
+      </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-      <c r="C23" s="1">
-        <v>2.3143E-3</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <v>1.4656000000000001E-3</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="3"/>
       <c r="G23" s="1"/>
       <c r="H23" s="6"/>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="23">
-        <v>1.639E-4</v>
-      </c>
-      <c r="C24" s="23">
-        <v>1.0215000000000001E-3</v>
-      </c>
-      <c r="D24" s="23">
-        <v>1.3706E-3</v>
-      </c>
-      <c r="E24" s="23">
-        <v>1.4247999999999999E-3</v>
-      </c>
-      <c r="F24" s="24">
-        <v>1.7097E-3</v>
-      </c>
-      <c r="G24" s="23">
-        <v>1.2922000000000001E-3</v>
-      </c>
-      <c r="H24" s="23">
-        <v>0.83288189999999995</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
+        <v>2.3143E-3</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>1.4656000000000001E-3</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="23">
-        <v>1.2459999999999999E-4</v>
-      </c>
-      <c r="C25" s="23">
-        <v>8.0860000000000003E-4</v>
-      </c>
-      <c r="D25" s="23">
-        <v>1.3546000000000001E-3</v>
-      </c>
-      <c r="E25" s="24">
-        <v>1.3615999999999999E-3</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="A25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1.639E-4</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1.0215000000000001E-3</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1.3706E-3</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1.4247999999999999E-3</v>
+      </c>
+      <c r="F25" s="34">
+        <v>1.7097E-3</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1.2922000000000001E-3</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.83288189999999995</v>
+      </c>
       <c r="J25" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1.2459999999999999E-4</v>
+      </c>
+      <c r="C26" s="6">
+        <v>8.0860000000000003E-4</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1.3546000000000001E-3</v>
+      </c>
+      <c r="E26" s="34">
+        <v>1.3615999999999999E-3</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="J26" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3.0160000000000001E-4</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0.87503220000000004</v>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="16">
+        <v>1.983E-4</v>
+      </c>
+      <c r="C27" s="16">
+        <v>9.1839999999999999E-4</v>
+      </c>
+      <c r="D27" s="16">
+        <v>1.3087000000000001E-3</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1.4805E-3</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="33">
+        <v>0.84341330000000003</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="1">
+        <v>3.0160000000000001E-4</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.87503220000000004</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1">
         <v>2.3364000000000002E-3</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J29" s="9" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="40">
-        <v>1.516E-4</v>
-      </c>
-      <c r="C29" s="21">
-        <v>6.533E-4</v>
-      </c>
-      <c r="D29" s="41">
-        <v>1.2830000000000001E-3</v>
-      </c>
-      <c r="E29" s="26">
-        <v>1.3075000000000001E-3</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22">
-        <v>0.79936929999999995</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B30">
+      <c r="A30" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="28">
+        <v>1.516E-4</v>
+      </c>
+      <c r="C30" s="29">
+        <v>6.533E-4</v>
+      </c>
+      <c r="D30" s="30">
+        <v>1.1746E-3</v>
+      </c>
+      <c r="E30" s="31">
+        <v>1.3075000000000001E-3</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="32">
+        <v>0.79936929999999995</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B31">
         <v>8.6500000000000002E-5</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>26</v>
+      <c r="J31" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="27">
+        <v>2.8403999999999999E-3</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.71559620000000002</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J34" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="39">
+        <v>2.096E-4</v>
+      </c>
+      <c r="C35" s="40">
+        <v>4.3522999999999999E-3</v>
+      </c>
+      <c r="D35" s="38">
+        <v>4.6210000000000001E-4</v>
+      </c>
+      <c r="E35" s="42">
+        <v>1.7389E-3</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.94634940000000001</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="39">
+        <v>6.6859999999999999E-4</v>
+      </c>
+      <c r="C36">
+        <v>3.9636999999999997E-3</v>
+      </c>
+      <c r="D36" s="38">
+        <v>1.0989000000000001E-3</v>
+      </c>
+      <c r="E36" s="42">
+        <v>1.8909E-3</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.97219820000000001</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1.0935999999999999E-3</v>
+      </c>
+      <c r="C37">
+        <v>2.6137999999999999E-3</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1.0368503</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="39">
+        <v>1.3615000000000001E-3</v>
+      </c>
+      <c r="C38">
+        <v>3.3899999999999998E-3</v>
+      </c>
+      <c r="D38" s="38">
+        <v>1.7029999999999999E-4</v>
+      </c>
+      <c r="E38" s="42">
+        <v>1.7926999999999999E-3</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.81161050000000001</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="39">
+        <v>1.2982E-3</v>
+      </c>
+      <c r="C39">
+        <v>2.7828000000000002E-3</v>
+      </c>
+      <c r="D39" s="38">
+        <v>1.4679999999999999E-4</v>
+      </c>
+      <c r="E39" s="42">
+        <v>1.8048999999999999E-3</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.79284019999999999</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="39">
+        <v>1.2386000000000001E-3</v>
+      </c>
+      <c r="C40">
+        <v>2.5688E-3</v>
+      </c>
+      <c r="D40" s="38">
+        <v>2.5339999999999998E-4</v>
+      </c>
+      <c r="E40" s="42">
+        <v>1.9897999999999999E-3</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.78959469999999998</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="39"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="42"/>
+      <c r="J41" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>1.3733E-3</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4284,10 +5135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C8322C-2557-4BA1-8535-F10E435504F8}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4299,70 +5150,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>33</v>
+      <c r="E1" s="21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="37">
         <v>6.4050000000000001E-4</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="37">
         <v>6.3349999999999995E-4</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="36">
         <v>8.252E-4</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="37">
         <v>9.1839999999999999E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="31">
-        <v>8.2149999999999996E-4</v>
-      </c>
-      <c r="C3" s="34">
-        <v>1.56E-3</v>
-      </c>
-      <c r="D3" s="31">
-        <v>1.2789999999999999E-4</v>
-      </c>
-      <c r="E3" s="31">
-        <v>1.1659000000000001E-3</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="41">
+        <v>1.983E-4</v>
+      </c>
+      <c r="C3" s="41">
+        <v>9.1839999999999999E-4</v>
+      </c>
+      <c r="D3" s="37">
+        <v>1.3087000000000001E-3</v>
+      </c>
+      <c r="E3" s="41">
+        <v>1.4805E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="21">
-        <v>1.516E-4</v>
-      </c>
-      <c r="C4" s="28">
-        <v>6.533E-4</v>
-      </c>
-      <c r="D4" s="35">
-        <v>1.2830000000000001E-3</v>
-      </c>
-      <c r="E4" s="36">
-        <v>1.3075000000000001E-3</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="37">
+        <v>1.2478000000000001E-3</v>
+      </c>
+      <c r="C4" s="37">
+        <v>2.5688E-3</v>
+      </c>
+      <c r="D4" s="37">
+        <v>2.4340000000000001E-4</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1.9878999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-rgrp-movielens-ieee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6979570E-51FB-43AC-A689-9123C30DC6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3229F81-2BFF-458A-BEE8-6997853D739F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A1F4DE74-3251-4727-84BB-A7BB7FECA5BB}"/>
   </bookViews>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{859BB5C9-5B17-4868-8E2C-871C320E537D}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{859BB5C9-5B17-4868-8E2C-871C320E537D}">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{F2DA076C-162A-4907-9F3F-A18430861A5F}">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{F2DA076C-162A-4907-9F3F-A18430861A5F}">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{C9218DDB-3331-42EA-A8CF-42E5A4836899}">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{C9218DDB-3331-42EA-A8CF-42E5A4836899}">
       <text>
         <r>
           <rPr>
@@ -203,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{2694C743-D319-4862-9BA3-708CF6E8C5F0}">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{2694C743-D319-4862-9BA3-708CF6E8C5F0}">
       <text>
         <r>
           <rPr>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{57A360D8-AA9D-4305-93A5-52BB12E12F85}">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{57A360D8-AA9D-4305-93A5-52BB12E12F85}">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{C6A0C391-1AA1-4261-82D2-A01525FD004D}">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{C6A0C391-1AA1-4261-82D2-A01525FD004D}">
       <text>
         <r>
           <rPr>
@@ -294,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{4C329613-FFD5-4BAC-ABD5-0206DF0D356D}">
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{4C329613-FFD5-4BAC-ABD5-0206DF0D356D}">
       <text>
         <r>
           <rPr>
@@ -331,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{5ED73C1E-3EF2-4423-8861-C62EAAAB618C}">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{5ED73C1E-3EF2-4423-8861-C62EAAAB618C}">
       <text>
         <r>
           <rPr>
@@ -352,17 +352,17 @@
           </rPr>
           <t xml:space="preserve">
 Algorithm: RecSysNCF
-Group (Rgrp Activity): 0.0001983
-RgrpActivity (advantaged_group)   : 0.6858409
-RgrpActivity (disadvantaged_group): 0.7140054
+Group (Rgrp Activity): 0.0002518
+RgrpActivity (advantaged_group)   : 0.6736042
+RgrpActivity (disadvantaged_group): 0.7053388
    group_id   novelty       ILD  adjusted_diversity
-0         1  0.665749  0.382118            0.254395
-1         2  0.597981  0.362389            0.216702
-RMSE: 0.8434133</t>
+0         1  0.604342  0.362572            0.219118
+1         2  0.534838  0.339928            0.181807
+RMSE: 0.8380586</t>
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{0CF7A287-74A7-4047-94C7-3EC29AF41B7A}">
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{0CF7A287-74A7-4047-94C7-3EC29AF41B7A}">
       <text>
         <r>
           <rPr>
@@ -402,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{4724EA4E-71B9-46D2-A087-AC0B214F9ADA}">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{4724EA4E-71B9-46D2-A087-AC0B214F9ADA}">
       <text>
         <r>
           <rPr>
@@ -432,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{5DC59B72-D2B4-4414-B119-6495027BD582}">
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{5DC59B72-D2B4-4414-B119-6495027BD582}">
       <text>
         <r>
           <rPr>
@@ -469,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{14607BBF-8D69-49A8-820C-C251B5088775}">
+    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{14607BBF-8D69-49A8-820C-C251B5088775}">
       <text>
         <r>
           <rPr>
@@ -493,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{49796729-0E52-472B-89F4-54239C9FCBC5}">
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{49796729-0E52-472B-89F4-54239C9FCBC5}">
       <text>
         <r>
           <rPr>
@@ -524,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{2F80C521-58CD-48E4-8275-C9C2268D13B3}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{2F80C521-58CD-48E4-8275-C9C2268D13B3}">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{10BE3610-AA8A-4847-9E8E-8C94365332D1}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{10BE3610-AA8A-4847-9E8E-8C94365332D1}">
       <text>
         <r>
           <rPr>
@@ -594,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{7BC2BF7D-6347-4153-B739-C37E94A67DA7}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{7BC2BF7D-6347-4153-B739-C37E94A67DA7}">
       <text>
         <r>
           <rPr>
@@ -631,7 +631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{A430CBA8-9AAA-4375-A57E-0E80A0116376}">
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{A430CBA8-9AAA-4375-A57E-0E80A0116376}">
       <text>
         <r>
           <rPr>
@@ -662,7 +662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{2D214B9C-1FF8-43D0-8725-30B962121499}">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{2D214B9C-1FF8-43D0-8725-30B962121499}">
       <text>
         <r>
           <rPr>
@@ -693,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{576A67CD-CF3A-44C7-83FA-F698B3BF2D98}">
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{576A67CD-CF3A-44C7-83FA-F698B3BF2D98}">
       <text>
         <r>
           <rPr>
@@ -733,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{4B3B8032-D2FE-4892-B577-B210E424846D}">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{4B3B8032-D2FE-4892-B577-B210E424846D}">
       <text>
         <r>
           <rPr>
@@ -763,7 +763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{01C30651-BEC9-4D0C-B293-99EE9ADD4D11}">
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{01C30651-BEC9-4D0C-B293-99EE9ADD4D11}">
       <text>
         <r>
           <rPr>
@@ -794,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{20BD1A90-E0BA-4967-983D-AFDA3D62E393}">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{20BD1A90-E0BA-4967-983D-AFDA3D62E393}">
       <text>
         <r>
           <rPr>
@@ -824,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{A2A1FFAB-15BC-478E-AC65-ABF1386F1BAA}">
+    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{A2A1FFAB-15BC-478E-AC65-ABF1386F1BAA}">
       <text>
         <r>
           <rPr>
@@ -855,7 +855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{30E8AA8F-1FAF-4C27-ADAD-F12EF2924B6C}">
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{30E8AA8F-1FAF-4C27-ADAD-F12EF2924B6C}">
       <text>
         <r>
           <rPr>
@@ -895,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{620FD321-8889-4600-8B6A-E06EF14321AD}">
+    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{620FD321-8889-4600-8B6A-E06EF14321AD}">
       <text>
         <r>
           <rPr>
@@ -925,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{B7D90B35-8826-4070-BE77-23FF48857537}">
+    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{B7D90B35-8826-4070-BE77-23FF48857537}">
       <text>
         <r>
           <rPr>
@@ -962,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{36BDAA6A-F91B-4B44-83C7-2A54BBCE3E4E}">
+    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{36BDAA6A-F91B-4B44-83C7-2A54BBCE3E4E}">
       <text>
         <r>
           <rPr>
@@ -993,7 +993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{4C834CEC-F816-4788-9D12-B431C9E4446E}">
+    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{4C834CEC-F816-4788-9D12-B431C9E4446E}">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{A1A1AC2F-760C-4517-A2BB-379EDC92143B}">
+    <comment ref="D41" authorId="0" shapeId="0" xr:uid="{A1A1AC2F-760C-4517-A2BB-379EDC92143B}">
       <text>
         <r>
           <rPr>
@@ -1063,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{B9FD6023-DDCF-4BA1-B9B3-818F92386E65}">
+    <comment ref="E41" authorId="0" shapeId="0" xr:uid="{B9FD6023-DDCF-4BA1-B9B3-818F92386E65}">
       <text>
         <r>
           <rPr>
@@ -1099,7 +1099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{D89D0690-3BC7-42E1-93CD-C0457C637FB4}">
+    <comment ref="B42" authorId="0" shapeId="0" xr:uid="{D89D0690-3BC7-42E1-93CD-C0457C637FB4}">
       <text>
         <r>
           <rPr>
@@ -1130,7 +1130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{13DEA31C-9FB1-4B25-8A20-2F2C5538C60D}">
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{13DEA31C-9FB1-4B25-8A20-2F2C5538C60D}">
       <text>
         <r>
           <rPr>
@@ -1170,7 +1170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{341FB0D1-1A4B-4B41-A7A1-A00C8B753D91}">
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{341FB0D1-1A4B-4B41-A7A1-A00C8B753D91}">
       <text>
         <r>
           <rPr>
@@ -1191,16 +1191,16 @@
           </rPr>
           <t xml:space="preserve">
 Algorithm: RecSysContentBased4
-Group (Rgrp Gender): 0.0002534
-RgrpGender (masculine): 0.6236506
-RgrpGender (feminine) : 0.6554883
-   group_id   novelty       ILD  adjusted_diversity
-0         1  0.990780  0.561719            0.556540
-1         2  1.011141  0.570900            0.577262</t>
+Group (Rgrp Gender): 0.0002542
+RgrpGender (masculine): 0.6217455
+RgrpGender (feminine) : 0.6536329
+   group_id   novelty      ILD  adjusted_diversity
+0         1  0.977831  0.55910            0.546705
+1         2  1.010425  0.57126            0.577216</t>
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{41082D98-E6C1-4D5A-BB9D-F0E8BA759C8C}">
+    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{41082D98-E6C1-4D5A-BB9D-F0E8BA759C8C}">
       <text>
         <r>
           <rPr>
@@ -1242,7 +1242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0" shapeId="0" xr:uid="{9E2D0A24-9071-4FD4-834F-8E81CCEFA794}">
+    <comment ref="B44" authorId="0" shapeId="0" xr:uid="{9E2D0A24-9071-4FD4-834F-8E81CCEFA794}">
       <text>
         <r>
           <rPr>
@@ -1312,7 +1312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>RecSysALS</t>
   </si>
@@ -1635,10 +1635,13 @@
     <t>k=5, regularization=0.01, alpha=1e-5</t>
   </si>
   <si>
-    <t>k=5, regularization=0.01, alpha=1e-6</t>
+    <t>k=5, regularization=0.1, alpha=1e-6</t>
   </si>
   <si>
-    <t>k=5, regularization=0.1, alpha=1e-6</t>
+    <t>rank = 30, lambda = 30</t>
+  </si>
+  <si>
+    <t>rank = 20, lambda = 10</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1863,6 +1866,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2053,7 +2064,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.983E-4</c:v>
+                  <c:v>2.5179999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.1839999999999999E-4</c:v>
@@ -2104,16 +2115,16 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.2478000000000001E-3</c:v>
+                  <c:v>1.2386000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.5688E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4340000000000001E-4</c:v>
+                  <c:v>2.542E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9878999999999999E-3</c:v>
+                  <c:v>1.9897999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2132,6 +2143,9 @@
               <c:f>Planilha2!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RecSysKNN2</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2171,6 +2185,18 @@
               <c:numCache>
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.2889999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9827999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0049999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2309E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2462,7 +2488,7 @@
             <c:strRef>
               <c:f>Planilha2!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>RecSysALS</c:v>
                 </c:pt>
@@ -2471,6 +2497,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RecSysCB4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RecSysKNN2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2485,10 +2514,13 @@
                   <c:v>6.4050000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.983E-4</c:v>
+                  <c:v>2.5179999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0000000">
-                  <c:v>1.2478000000000001E-3</c:v>
+                  <c:v>1.2386000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000000">
+                  <c:v>7.2889999999999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2527,7 +2559,7 @@
             <c:strRef>
               <c:f>Planilha2!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>RecSysALS</c:v>
                 </c:pt>
@@ -2536,6 +2568,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RecSysCB4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RecSysKNN2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2554,6 +2589,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0000000">
                   <c:v>2.5688E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000000">
+                  <c:v>1.9827999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,7 +2630,7 @@
             <c:strRef>
               <c:f>Planilha2!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>RecSysALS</c:v>
                 </c:pt>
@@ -2601,6 +2639,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RecSysCB4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RecSysKNN2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2618,7 +2659,10 @@
                   <c:v>1.3087000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4340000000000001E-4</c:v>
+                  <c:v>2.542E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0049999999999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,7 +2701,7 @@
             <c:strRef>
               <c:f>Planilha2!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>RecSysALS</c:v>
                 </c:pt>
@@ -2666,6 +2710,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RecSysCB4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RecSysKNN2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2683,7 +2730,10 @@
                   <c:v>1.4805E-3</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0000000">
-                  <c:v>1.9878999999999999E-3</c:v>
+                  <c:v>1.9897999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000000">
+                  <c:v>1.2309E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4350,10 +4400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C0B08-EC64-49F3-A18C-7F6904150A6D}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4592,496 +4642,484 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>1.0806E-2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3.0749000000000002E-3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.032E-4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.0104999999999999E-2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5.6756000000000003E-3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4.9899000000000002E-3</v>
-      </c>
-      <c r="H13" s="6"/>
+        <v>1.337E-4</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <v>0.87820600000000004</v>
+      </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="L14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.0806E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.0749000000000002E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.032E-4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0104999999999999E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5.6756000000000003E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4.9899000000000002E-3</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="L15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B17" s="25">
         <v>7.2889999999999999E-4</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C17" s="15">
         <v>1.9827999999999998E-3</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D17" s="13">
         <v>2.0049999999999999E-4</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E17" s="16">
         <v>1.2309E-3</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F17" s="17">
         <v>1.2176000000000001E-3</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G17" s="13">
         <v>5.1000000000000004E-4</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H17" s="14">
         <v>0.75205449999999996</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L17" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18">
-        <v>7.8299999999999995E-4</v>
-      </c>
-      <c r="C16" s="18">
-        <v>1.7982E-3</v>
-      </c>
-      <c r="D16" s="18">
-        <v>1.539E-4</v>
-      </c>
-      <c r="E16" s="18">
-        <v>1.1921E-3</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18">
-        <v>0.79270200000000002</v>
-      </c>
-      <c r="L16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18">
-        <v>6.7319999999999999E-4</v>
-      </c>
-      <c r="C17" s="18">
-        <v>2.6305E-3</v>
-      </c>
-      <c r="D17" s="18">
-        <v>3.0200000000000002E-4</v>
-      </c>
-      <c r="E17" s="18">
-        <v>1.3839E-3</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="L17" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1.0721000000000001E-3</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5.4569999999999998E-4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3.9700000000000003E-5</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3">
-        <v>5.5239999999999998E-4</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="6"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18">
+        <v>7.8299999999999995E-4</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1.7982E-3</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1.539E-4</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1.1921E-3</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18">
+        <v>0.79270200000000002</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <v>1.8698E-3</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1">
-        <v>1.2871E-3</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="6"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18">
+        <v>6.7319999999999999E-4</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2.6305E-3</v>
+      </c>
+      <c r="D19" s="18">
+        <v>3.0200000000000002E-4</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1.3839E-3</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="26">
-        <v>8.2149999999999996E-4</v>
-      </c>
-      <c r="C20" s="19">
-        <v>1.56E-3</v>
-      </c>
-      <c r="D20" s="24">
-        <v>1.2789999999999999E-4</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.1659000000000001E-3</v>
-      </c>
-      <c r="F20" s="3"/>
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.0721000000000001E-3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.4569999999999998E-4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.9700000000000003E-5</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3">
+        <v>5.5239999999999998E-4</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="6">
-        <v>0.71157459999999995</v>
-      </c>
-      <c r="L20" t="s">
-        <v>29</v>
-      </c>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>8.9050000000000002E-4</v>
-      </c>
-      <c r="C21" s="22">
-        <v>1.4714999999999999E-3</v>
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
+        <v>1.8698E-3</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1">
+        <v>1.2871E-3</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="6">
-        <v>0.69375019999999998</v>
-      </c>
+      <c r="H21" s="6"/>
       <c r="L21" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1">
-        <v>1.3573999999999999E-3</v>
-      </c>
-      <c r="D22" s="1"/>
+      <c r="B22" s="26">
+        <v>8.2149999999999996E-4</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1.56E-3</v>
+      </c>
+      <c r="D22" s="24">
+        <v>1.2789999999999999E-4</v>
+      </c>
       <c r="E22" s="1">
-        <v>1.0827E-3</v>
+        <v>1.1659000000000001E-3</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="1"/>
       <c r="H22" s="6">
-        <v>0.66980530000000005</v>
+        <v>0.71157459999999995</v>
       </c>
       <c r="L22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1">
+        <v>8.9050000000000002E-4</v>
+      </c>
+      <c r="C23" s="22">
+        <v>1.4714999999999999E-3</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6">
+        <v>0.69375019999999998</v>
+      </c>
       <c r="L23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1">
-        <v>2.3143E-3</v>
+        <v>1.3573999999999999E-3</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
-        <v>1.4656000000000001E-3</v>
+        <v>1.0827E-3</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6">
+        <v>0.66980530000000005</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="6"/>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
+        <v>2.3143E-3</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>1.4656000000000001E-3</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B27" s="6">
         <v>1.639E-4</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C27" s="6">
         <v>1.0215000000000001E-3</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D27" s="6">
         <v>1.3706E-3</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E27" s="6">
         <v>1.4247999999999999E-3</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F27" s="34">
         <v>1.7097E-3</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G27" s="6">
         <v>1.2922000000000001E-3</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H27" s="6">
         <v>0.83288189999999995</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1.2459999999999999E-4</v>
-      </c>
-      <c r="C26" s="6">
-        <v>8.0860000000000003E-4</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1.3546000000000001E-3</v>
-      </c>
-      <c r="E26" s="34">
-        <v>1.3615999999999999E-3</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="J26" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="16">
-        <v>1.983E-4</v>
-      </c>
-      <c r="C27" s="16">
-        <v>9.1839999999999999E-4</v>
-      </c>
-      <c r="D27" s="16">
-        <v>1.3087000000000001E-3</v>
-      </c>
-      <c r="E27" s="12">
-        <v>1.4805E-3</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="33">
-        <v>0.84341330000000003</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3.0160000000000001E-4</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0.87503220000000004</v>
-      </c>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1.2459999999999999E-4</v>
+      </c>
+      <c r="C28" s="6">
+        <v>8.0860000000000003E-4</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1.3546000000000001E-3</v>
+      </c>
+      <c r="E28" s="34">
+        <v>1.3615999999999999E-3</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="J28" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2.3364000000000002E-3</v>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="16">
+        <v>2.5179999999999999E-4</v>
+      </c>
+      <c r="C29" s="16">
+        <v>9.1839999999999999E-4</v>
+      </c>
+      <c r="D29" s="16">
+        <v>1.3087000000000001E-3</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1.4805E-3</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="33">
+        <v>0.83805859999999999</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+      <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="28">
-        <v>1.516E-4</v>
-      </c>
-      <c r="C30" s="29">
-        <v>6.533E-4</v>
-      </c>
-      <c r="D30" s="30">
-        <v>1.1746E-3</v>
-      </c>
-      <c r="E30" s="31">
-        <v>1.3075000000000001E-3</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="32">
-        <v>0.79936929999999995</v>
+      <c r="B30" s="1">
+        <v>3.0160000000000001E-4</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.87503220000000004</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>8.6500000000000002E-5</v>
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2.3364000000000002E-3</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="28">
+        <v>1.516E-4</v>
+      </c>
+      <c r="C32" s="29">
+        <v>6.533E-4</v>
+      </c>
+      <c r="D32" s="30">
+        <v>1.1746E-3</v>
+      </c>
+      <c r="E32" s="31">
+        <v>1.3075000000000001E-3</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="32">
+        <v>0.79936929999999995</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="27">
-        <v>2.8403999999999999E-3</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0.71559620000000002</v>
+      <c r="B33">
+        <v>8.6500000000000002E-5</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J34" s="9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="39">
-        <v>2.096E-4</v>
-      </c>
-      <c r="C35" s="40">
-        <v>4.3522999999999999E-3</v>
-      </c>
-      <c r="D35" s="38">
-        <v>4.6210000000000001E-4</v>
-      </c>
-      <c r="E35" s="42">
-        <v>1.7389E-3</v>
+        <v>34</v>
+      </c>
+      <c r="B35" s="27">
+        <v>2.8403999999999999E-3</v>
       </c>
       <c r="H35" s="5">
-        <v>0.94634940000000001</v>
+        <v>0.71559620000000002</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="39">
-        <v>6.6859999999999999E-4</v>
-      </c>
-      <c r="C36">
-        <v>3.9636999999999997E-3</v>
-      </c>
-      <c r="D36" s="38">
-        <v>1.0989000000000001E-3</v>
-      </c>
-      <c r="E36" s="42">
-        <v>1.8909E-3</v>
-      </c>
-      <c r="H36" s="5">
-        <v>0.97219820000000001</v>
-      </c>
       <c r="J36" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>1.0935999999999999E-3</v>
-      </c>
-      <c r="C37">
-        <v>2.6137999999999999E-3</v>
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="39">
+        <v>2.096E-4</v>
+      </c>
+      <c r="C37" s="40">
+        <v>4.3522999999999999E-3</v>
+      </c>
+      <c r="D37" s="38">
+        <v>4.6210000000000001E-4</v>
+      </c>
+      <c r="E37" s="42">
+        <v>1.7389E-3</v>
       </c>
       <c r="H37" s="5">
-        <v>1.0368503</v>
+        <v>0.94634940000000001</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B38" s="39">
-        <v>1.3615000000000001E-3</v>
+        <v>6.6859999999999999E-4</v>
       </c>
       <c r="C38">
-        <v>3.3899999999999998E-3</v>
+        <v>3.9636999999999997E-3</v>
       </c>
       <c r="D38" s="38">
-        <v>1.7029999999999999E-4</v>
+        <v>1.0989000000000001E-3</v>
       </c>
       <c r="E38" s="42">
-        <v>1.7926999999999999E-3</v>
+        <v>1.8909E-3</v>
       </c>
       <c r="H38" s="5">
-        <v>0.81161050000000001</v>
+        <v>0.97219820000000001</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="39">
-        <v>1.2982E-3</v>
+      <c r="B39">
+        <v>1.0935999999999999E-3</v>
       </c>
       <c r="C39">
-        <v>2.7828000000000002E-3</v>
-      </c>
-      <c r="D39" s="38">
-        <v>1.4679999999999999E-4</v>
-      </c>
-      <c r="E39" s="42">
-        <v>1.8048999999999999E-3</v>
+        <v>2.6137999999999999E-3</v>
       </c>
       <c r="H39" s="5">
-        <v>0.79284019999999999</v>
+        <v>1.0368503</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5089,40 +5127,88 @@
         <v>42</v>
       </c>
       <c r="B40" s="39">
+        <v>1.3615000000000001E-3</v>
+      </c>
+      <c r="C40">
+        <v>3.3899999999999998E-3</v>
+      </c>
+      <c r="D40" s="38">
+        <v>1.7029999999999999E-4</v>
+      </c>
+      <c r="E40" s="42">
+        <v>1.7926999999999999E-3</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.81161050000000001</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="39">
+        <v>1.2982E-3</v>
+      </c>
+      <c r="C41">
+        <v>2.7828000000000002E-3</v>
+      </c>
+      <c r="D41" s="38">
+        <v>1.4679999999999999E-4</v>
+      </c>
+      <c r="E41" s="42">
+        <v>1.8048999999999999E-3</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.79284019999999999</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="46">
         <v>1.2386000000000001E-3</v>
       </c>
-      <c r="C40">
+      <c r="C42" s="47">
         <v>2.5688E-3</v>
       </c>
-      <c r="D40" s="38">
-        <v>2.5339999999999998E-4</v>
-      </c>
-      <c r="E40" s="42">
+      <c r="D42" s="48">
+        <v>2.542E-4</v>
+      </c>
+      <c r="E42" s="49">
         <v>1.9897999999999999E-3</v>
       </c>
-      <c r="H40" s="5">
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="50">
         <v>0.78959469999999998</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J42" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="39"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="42"/>
-      <c r="J41" s="9" t="s">
-        <v>48</v>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="39"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="42"/>
+      <c r="J43" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B44">
         <v>1.3733E-3</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="J44" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5138,7 +5224,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5185,13 +5271,13 @@
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="41">
-        <v>1.983E-4</v>
+      <c r="B3" s="43">
+        <v>2.5179999999999999E-4</v>
       </c>
       <c r="C3" s="41">
         <v>9.1839999999999999E-4</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="44">
         <v>1.3087000000000001E-3</v>
       </c>
       <c r="E3" s="41">
@@ -5202,25 +5288,35 @@
       <c r="A4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="37">
-        <v>1.2478000000000001E-3</v>
-      </c>
-      <c r="C4" s="37">
+      <c r="B4" s="44">
+        <v>1.2386000000000001E-3</v>
+      </c>
+      <c r="C4" s="44">
         <v>2.5688E-3</v>
       </c>
-      <c r="D4" s="37">
-        <v>2.4340000000000001E-4</v>
+      <c r="D4" s="44">
+        <v>2.542E-4</v>
       </c>
       <c r="E4" s="37">
-        <v>1.9878999999999999E-3</v>
+        <v>1.9897999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="A5" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="37">
+        <v>7.2889999999999999E-4</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1.9827999999999998E-3</v>
+      </c>
+      <c r="D5" s="37">
+        <v>2.0049999999999999E-4</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1.2309E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
